--- a/data/hotels_by_city/Dallas/Dallas_shard_785.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_785.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,576 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r504025196-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>1156755</t>
+  </si>
+  <si>
+    <t>504025196</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay but not very impressed </t>
+  </si>
+  <si>
+    <t>The front staff young lady was very friendly but overall for a "Suite " type hotel, it's lacking. Truthfully, it's like being in a Motel 6 with a fridge and stove. Don't get me wrong, for the price and expectation, I love Motel 6 but you expect a good but average room BUT when you reserve a Suite, I think the expectation is higher. I got a decent rate and it's close to my training but I will probably stay somewhere else next time. NO BREAKFAST, NO GOODIES, NOT EVEN BOTTLED WATER IN THE ROOM :(MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites McKinney, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>The front staff young lady was very friendly but overall for a "Suite " type hotel, it's lacking. Truthfully, it's like being in a Motel 6 with a fridge and stove. Don't get me wrong, for the price and expectation, I love Motel 6 but you expect a good but average room BUT when you reserve a Suite, I think the expectation is higher. I got a decent rate and it's close to my training but I will probably stay somewhere else next time. NO BREAKFAST, NO GOODIES, NOT EVEN BOTTLED WATER IN THE ROOM :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r473491020-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>473491020</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed for work rooms appear dated but clean, bed feels like your sleeping on a piece of plywood very uncomfortable, desk lady was nice. Area is ok just off main highway and short distance from restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for work rooms appear dated but clean, bed feels like your sleeping on a piece of plywood very uncomfortable, desk lady was nice. Area is ok just off main highway and short distance from restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r440201264-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>440201264</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Guest attendant</t>
+  </si>
+  <si>
+    <t>While registering for my stay at the Value Place in McKinney, Tracy O., the guest attendant was the most friendliest and professional attendant that I have ever encountered.  She was very knowledgeable about the property and answered all my questions. Tracy O. made my experience here feel like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stephen S, District Manager at WoodSpring Suites McKinney, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>While registering for my stay at the Value Place in McKinney, Tracy O., the guest attendant was the most friendliest and professional attendant that I have ever encountered.  She was very knowledgeable about the property and answered all my questions. Tracy O. made my experience here feel like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r368585614-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>368585614</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, affordable, clean</t>
+  </si>
+  <si>
+    <t>For 10 days in April 2016, I occupied room 303. To my delight, the roof was more than adequate for my needs. Quiet, clean, and comfortable. Amenities are minimal, which is the reason the rates are good. If in the area in the future, I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, District Manager at WoodSpring Suites McKinney, responded to this reviewResponded July 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2016</t>
+  </si>
+  <si>
+    <t>For 10 days in April 2016, I occupied room 303. To my delight, the roof was more than adequate for my needs. Quiet, clean, and comfortable. Amenities are minimal, which is the reason the rates are good. If in the area in the future, I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r351226956-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>351226956</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Good Price for Stay</t>
+  </si>
+  <si>
+    <t>The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I...The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I go downsatirs and do my laundry and then get back up and my card doesn't work after midnight. Had to call the office after hours, and I was told that it would be more than 10 mins, before she get's down there. First of all, day one I was here after over 12 hours drive was told to wait. The staff and mangment doesn't care what you do as long as they get thire money. I hope this palce will be able to matain thier business for a long time with their attitude. I hope that they can fix their problem and not charge eveyone such a weekly rate which it ten times more than an appartment and a house.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I...The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I go downsatirs and do my laundry and then get back up and my card doesn't work after midnight. Had to call the office after hours, and I was told that it would be more than 10 mins, before she get's down there. First of all, day one I was here after over 12 hours drive was told to wait. The staff and mangment doesn't care what you do as long as they get thire money. I hope this palce will be able to matain thier business for a long time with their attitude. I hope that they can fix their problem and not charge eveyone such a weekly rate which it ten times more than an appartment and a house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r344296135-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>344296135</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very poor service </t>
+  </si>
+  <si>
+    <t>My room has not been cleaned for the past month. I had to borrow a vacuum from a passing maid. Thank goodness I hadn't taken out my bathroom trash because they are out of toilet paper and I had to pick from the trash. My room did not lock for 3 days and I had to take my stuff with me everywhere I went. The counter service is very rude and acts like you are a bother to them. I will never be back and will inform the corporation I work for to never send anyone here again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r330088590-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>330088590</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>excellent value</t>
+  </si>
+  <si>
+    <t>My room was very clean and I was surprised that the  cable TV included so many channels, all of the staff were very polite and friendly. The people at the front desk were able to answer my questions and give me directions when I asked. The location is right next to the highway, so you could hear a little traffic noise, but overall it was a pleasant stay.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r329079638-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>329079638</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Best place ive stayed!!</t>
+  </si>
+  <si>
+    <t>Value Place is the by far the best place I've stayed so far! We've been here for almost 6 months and have never had a problem. The rooms are kept up nicely and the staff are sweet especially Amy!! She's the nicest one here by far. She works to make sure our stay is enjoyable and makes sure we are all taken care of. She goes above and beyond to make it her duty to make sure we don't need anything. She is the sweetest lady and works hard at what she does. Every time we've paid rent theirs never been a problem as long as she's there. She helps us when we need something and is all around AMAZING! We love Amy!!! In My opinion she is the most professional staff member here. If your traveling I would deffinantly stay at Value Place! Thank so much for your graciousness and your hospitality. (:MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Value Place is the by far the best place I've stayed so far! We've been here for almost 6 months and have never had a problem. The rooms are kept up nicely and the staff are sweet especially Amy!! She's the nicest one here by far. She works to make sure our stay is enjoyable and makes sure we are all taken care of. She goes above and beyond to make it her duty to make sure we don't need anything. She is the sweetest lady and works hard at what she does. Every time we've paid rent theirs never been a problem as long as she's there. She helps us when we need something and is all around AMAZING! We love Amy!!! In My opinion she is the most professional staff member here. If your traveling I would deffinantly stay at Value Place! Thank so much for your graciousness and your hospitality. (:More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r326331152-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>326331152</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>VERY NICE, FOR THE PRICE</t>
+  </si>
+  <si>
+    <t>This place was way better than I expected. It's very clean. Me, my mom and my daughter stayed here for 8 days, while visiting family. We stayed in the 2 bed studio. It offers you your own space.  The homes of family member can get a little too crowded and Im the type that likes my space. For $50 a night, you cant beat that. Absolutely loved it. The house keeper Casey ( I think that was her name) was an absolute doll. Very hospitable. Hot water no matter how early or how late. The only complaint that I really have is that there is no real place to take out your garbage.  Housekeeping cleans the rooms once a week. If you want it more than that, you gotta pay for it. Everybody throws there bags of garbage in the little garbage can in front of the hotel, that quickly over flows. And there's no ironing board or iron in the rooms. You have to get them from the front desk. If you go beyond 30 min, they will charge you. And if the front is closed, you !#%× outta luck, you'll just be walking around with wrinkle clothes. Everything here is very basic. That's why it's so cheap, but very clean. And it's right off of a main highway and you got a super target and a few other stores up the block. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This place was way better than I expected. It's very clean. Me, my mom and my daughter stayed here for 8 days, while visiting family. We stayed in the 2 bed studio. It offers you your own space.  The homes of family member can get a little too crowded and Im the type that likes my space. For $50 a night, you cant beat that. Absolutely loved it. The house keeper Casey ( I think that was her name) was an absolute doll. Very hospitable. Hot water no matter how early or how late. The only complaint that I really have is that there is no real place to take out your garbage.  Housekeeping cleans the rooms once a week. If you want it more than that, you gotta pay for it. Everybody throws there bags of garbage in the little garbage can in front of the hotel, that quickly over flows. And there's no ironing board or iron in the rooms. You have to get them from the front desk. If you go beyond 30 min, they will charge you. And if the front is closed, you !#%× outta luck, you'll just be walking around with wrinkle clothes. Everything here is very basic. That's why it's so cheap, but very clean. And it's right off of a main highway and you got a super target and a few other stores up the block. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r322467565-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>322467565</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>"Very Convenient"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the staff here that I have encountered is very likeable. Amy and Tori have handled most of my check-ins. They have made and make things a little smoother for me whenever I need a room. All in all I usually look to come here whenever I need a place to go for the night. It is just very convenient for me and is familiar as well. So until I actually start the process of looking for an apartment again, I will continue to come here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r320354099-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>320354099</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Rude staff, misrepresentations on web site</t>
+  </si>
+  <si>
+    <t>First, the staff is rude. Need something? Forget it. You get one roll of toilet paper. After that, you're on your own. The web site advertises weekly and monthly rates. That's a lie. It's the same rate, every day. If you rent daily, you get daily cleaning, toilet paper, soap. There are less expensive places in the area. It is, however, clean. Police do often cruise the parking lot. That makes me wonder whether the place is safe because of the police or unsafe, and that's why the police are there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r319161863-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>319161863</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Unprofessional</t>
+  </si>
+  <si>
+    <t>I checked in for 1 night and informed desk clerk that I would most likely extend for the week. The next morning I get a phone call from another employee asking me "what should we do with your belongings" in a sarcastic tone. I informed her that I wanted to extend and would be there after I got off work. My co-worker extended his room for the week and as I was extending mine I noticed that they charged me for a week and not extended. So I was charged 1 day and 1 week. They did the same to my co-worker. I asked to be refunded as was told the manager Clint would have to do that. 4 days later and 3 more trips to the front desk speaking with 3 different people, Clint has yet to call me back or refund my money. Not happy and very unprofessional. Still waiting on both Value Place......MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in for 1 night and informed desk clerk that I would most likely extend for the week. The next morning I get a phone call from another employee asking me "what should we do with your belongings" in a sarcastic tone. I informed her that I wanted to extend and would be there after I got off work. My co-worker extended his room for the week and as I was extending mine I noticed that they charged me for a week and not extended. So I was charged 1 day and 1 week. They did the same to my co-worker. I asked to be refunded as was told the manager Clint would have to do that. 4 days later and 3 more trips to the front desk speaking with 3 different people, Clint has yet to call me back or refund my money. Not happy and very unprofessional. Still waiting on both Value Place......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r298086990-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>298086990</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Very reasonably priced for a long stay!</t>
+  </si>
+  <si>
+    <t>I relocated recently and stayed for almost two weeks. The price was very reasonable and the hotel was perfect for a transitional stay. I didn't not know there were stoves so I did not bring cookware but with a full sized fridge and microwave I was able to get buy without eating out every day.  The building was very clean and secure and I felt safe. Laundry on premesis was also helpful. The staff was very nice and helpful as well.  I am glad I read previous reviews about the management change or I would not have stayed based on older reviews.  My room would not get as cold as I would like but it wasn't horrible.  There is no pool or anything else for kids to do but it served my needs and I'm glad I stayed there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I relocated recently and stayed for almost two weeks. The price was very reasonable and the hotel was perfect for a transitional stay. I didn't not know there were stoves so I did not bring cookware but with a full sized fridge and microwave I was able to get buy without eating out every day.  The building was very clean and secure and I felt safe. Laundry on premesis was also helpful. The staff was very nice and helpful as well.  I am glad I read previous reviews about the management change or I would not have stayed based on older reviews.  My room would not get as cold as I would like but it wasn't horrible.  There is no pool or anything else for kids to do but it served my needs and I'm glad I stayed there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r298063009-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>298063009</t>
+  </si>
+  <si>
+    <t>Job well done</t>
+  </si>
+  <si>
+    <t>I first arrived to the hotel and was greeted by the assistant manager  (Amy) she was very friendly and answered all my questions that i had and being new to the area helped me find local things around me. The room was well kept and clean (which is always nice) it felt more like a home than hotel room with a fridge and microwave and stove top and counter space. I had trouble getting the A/C to come on but the property attendant (Jaocb) was super helpful and friendly and was more than happy to help me even though it was after hours (greatly appreciated). All together it was a good stay and i will definitely will be back. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I first arrived to the hotel and was greeted by the assistant manager  (Amy) she was very friendly and answered all my questions that i had and being new to the area helped me find local things around me. The room was well kept and clean (which is always nice) it felt more like a home than hotel room with a fridge and microwave and stove top and counter space. I had trouble getting the A/C to come on but the property attendant (Jaocb) was super helpful and friendly and was more than happy to help me even though it was after hours (greatly appreciated). All together it was a good stay and i will definitely will be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r274823474-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>274823474</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Trip review</t>
+  </si>
+  <si>
+    <t>My husband and I recently stayed at the Value Place in McKinney. We had a very good experience. The hotel and parking lot was clean. The staff was very friendly and knowledgeable. Value Place -McKinney provided a safe environment for our visit. We will definitely stay at this hotel again and whole heartedly recommend it.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r217302509-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>217302509</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Horrible staff stay and experience</t>
+  </si>
+  <si>
+    <t>My stay here was the worst I've had in a long time, staff has yelled at me cussed me out multiple times . Staff does drugs. Bugs everywhere. Zero room service you have to do everything yourself. After taxes it's 338$$ a week you have to wait a month to get the "279.99"...... which is so extravagantly showcased on the sign out front. No ice machines. Cops are called here all the time. Kids are constantly throwing loud partys. If you love being disrespected, and love half star hotels come here!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r217369272-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>217369272</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Brandon and Natalie at the front desk were absolutely great. The place was very clean and quiet. I will stay here again when I am back in town. 5 stars all around for the price,cleanliness and staff. Laundry facilities were clean and did a good job on my clothes. Location is great to dining and shopping as well as interstate access.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r196460182-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>196460182</t>
+  </si>
+  <si>
+    <t>03/06/2014</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I have stayed here before and the best thing besides the comfortable bed and kitchenette are the people that work here. They have been here for awhile and will make you feel welcome.  For a budget stay this is the best location in a safe area with a well maintained room.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r176618996-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>176618996</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Very Nice And clean</t>
+  </si>
+  <si>
+    <t>I would reccomend this hotel. The service was great and rooms are very nice and cleanLocation is great!! Laundry facility on site. I feel safe on as well. They have on site security and you can't have access without a key card. Love It!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r162476020-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>162476020</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. staff is really good and responses to problems quickly.  Best value for the services offered i have found. I would recommend this place to anyone. The cleaning staff and on site manager are very responsive to my needs when I ask them. I wish I had found Value Place when I was traveling more they would have made my travels a lot easier.  The small kitchen is really handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites McKinney, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Very nice place to stay. staff is really good and responses to problems quickly.  Best value for the services offered i have found. I would recommend this place to anyone. The cleaning staff and on site manager are very responsive to my needs when I ask them. I wish I had found Value Place when I was traveling more they would have made my travels a lot easier.  The small kitchen is really handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r162473438-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>162473438</t>
+  </si>
+  <si>
+    <t>Reasonable rates, clean rooms</t>
+  </si>
+  <si>
+    <t>Stayed here several months, and was glad to have a room to come home to that was clean and safe. The staff is great, and always eager to help you. Having a kitchen makes life allot easier when you're trying to make ends meet. It's a blessing to have a place that charges reasonable rates with cable included and internet for a little more. There's a laundry room as well, so you don't have to leave the property to wash your clothes. It's located on the north side of town, with all kinds of places to go for entertainment and food. If you're staying for a week, or longer, this is the place you want to go!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here several months, and was glad to have a room to come home to that was clean and safe. The staff is great, and always eager to help you. Having a kitchen makes life allot easier when you're trying to make ends meet. It's a blessing to have a place that charges reasonable rates with cable included and internet for a little more. There's a laundry room as well, so you don't have to leave the property to wash your clothes. It's located on the north side of town, with all kinds of places to go for entertainment and food. If you're staying for a week, or longer, this is the place you want to go!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r131028519-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>131028519</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>AWESOMENESS</t>
+  </si>
+  <si>
+    <t>My family and I have been here since Jan 2012. Due to me having a car wreck and losing my house. The best place to stay. The staff is awesome they take care of you. If something is wrong they fix it. If you need anything they let you have it or use it. For  the prices it good. You have a kitchen and you still can cook. Its like you are away from home but when other people are cooking you can smell it in the halls. I have meet some really nice people that I will contunie to talk to outside of Value Place. The key cards is great and awesome that people cant find you if you dont want to be found. If I ever need a hotel again I know where my family will be going??? Thanks so much Mrs. LG.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>My family and I have been here since Jan 2012. Due to me having a car wreck and losing my house. The best place to stay. The staff is awesome they take care of you. If something is wrong they fix it. If you need anything they let you have it or use it. For  the prices it good. You have a kitchen and you still can cook. Its like you are away from home but when other people are cooking you can smell it in the halls. I have meet some really nice people that I will contunie to talk to outside of Value Place. The key cards is great and awesome that people cant find you if you dont want to be found. If I ever need a hotel again I know where my family will be going??? Thanks so much Mrs. LG.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r130867749-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>130867749</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Great stay at a good price!!</t>
+  </si>
+  <si>
+    <t>First off let me say that I travel extensively with my job and I stay at one location for weeks at a time.  I have just recently discovered Value Place as an option to stay.  Now at first I was thinking that the hotel might have been dirty or of low quality due to the name.  I took a chance anyway because the price was outstanding. It turns out that this is a great place to stay.  The rooms were clean and the staff was amazing.  I was very surprised at how much the staff went out of their way to make me feel comfortable.  I was put off by the fact that they did not have a coffee pot in the room, but once I was told that my stay was more like a smaller lease on an apartment I figured, when I rent an apartment it doesn’t come with a coffee pot, pots and pans so it didn’t bother me.  Another thing that I liked was the fact that they have a security person on site at all times.  All and all I will be back here again, and I would defiantly recommend this location to anyone looking for a great deal and a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>First off let me say that I travel extensively with my job and I stay at one location for weeks at a time.  I have just recently discovered Value Place as an option to stay.  Now at first I was thinking that the hotel might have been dirty or of low quality due to the name.  I took a chance anyway because the price was outstanding. It turns out that this is a great place to stay.  The rooms were clean and the staff was amazing.  I was very surprised at how much the staff went out of their way to make me feel comfortable.  I was put off by the fact that they did not have a coffee pot in the room, but once I was told that my stay was more like a smaller lease on an apartment I figured, when I rent an apartment it doesn’t come with a coffee pot, pots and pans so it didn’t bother me.  Another thing that I liked was the fact that they have a security person on site at all times.  All and all I will be back here again, and I would defiantly recommend this location to anyone looking for a great deal and a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r129245728-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>129245728</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>*LOTS OF ANTS - DIRTY ROOMS*</t>
+  </si>
+  <si>
+    <t>I complained to the front office Amanda about ant issues and asked each day if my room was sprayed. The room was never sprayed. Rooms are dirty. Front office staff are rude. Manager quit. Don't waste your money.Trophy Club is the best!!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r34477766-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>34477766</t>
+  </si>
+  <si>
+    <t>07/11/2009</t>
+  </si>
+  <si>
+    <t>Worst Hotel and staff NEVER going there again they are owing me money!!!!</t>
+  </si>
+  <si>
+    <t>My family and I were checking in the hotel.We had a card that was going to be deducted 100 dollars for the one week deposit, they deducted more than 1000 dollars from my acount in fault and now my whole acount is scrued up. I cannot do anything in my acount for days. Being that all this happened we would expect some kind of respect from the staff but all we had were silly remarks when we passed down the halls and asked for clean towels.I asked for the properties corporate office and they refused to give me ANY name or number whatsover.My daughter was discriminated by the manager that said she was being rude when she was asking for the corporate number nicely and politely.They are now owing me more than 1000 dollars and made us pay for three days even though we only stayed for 2 nights.I figured that after what we went through in this terrible place they would at least give me my money back!!!Staff in this place are the worst people that i have delt with in my life.Non professional and i have been trying to get ahold of the property manager but no one has called me and my money????? Nothing!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>My family and I were checking in the hotel.We had a card that was going to be deducted 100 dollars for the one week deposit, they deducted more than 1000 dollars from my acount in fault and now my whole acount is scrued up. I cannot do anything in my acount for days. Being that all this happened we would expect some kind of respect from the staff but all we had were silly remarks when we passed down the halls and asked for clean towels.I asked for the properties corporate office and they refused to give me ANY name or number whatsover.My daughter was discriminated by the manager that said she was being rude when she was asking for the corporate number nicely and politely.They are now owing me more than 1000 dollars and made us pay for three days even though we only stayed for 2 nights.I figured that after what we went through in this terrible place they would at least give me my money back!!!Staff in this place are the worst people that i have delt with in my life.Non professional and i have been trying to get ahold of the property manager but no one has called me and my money????? Nothing!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r33670528-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>33670528</t>
+  </si>
+  <si>
+    <t>07/01/2009</t>
+  </si>
+  <si>
+    <t>Very clean, safe and fits in anyones budget.</t>
+  </si>
+  <si>
+    <t>This was the cleanest hotel, in one of the safest areas around McKinney.  Fits well into anyones budget.  The manager showed me the rooms before I rented, and she made it very clear what did and did not come with the room - so there were no surprises.  Very friendly, helpful and welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites McKinney, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>This was the cleanest hotel, in one of the safest areas around McKinney.  Fits well into anyones budget.  The manager showed me the rooms before I rented, and she made it very clear what did and did not come with the room - so there were no surprises.  Very friendly, helpful and welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r31082291-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>31082291</t>
+  </si>
+  <si>
+    <t>05/29/2009</t>
+  </si>
+  <si>
+    <t>The most unwelcoming place ever</t>
+  </si>
+  <si>
+    <t>Value Place has a kitchen in each room but there are no kitchen supplies.  This is not apparent until you check into your room.  They have supplies for sale in the office but by the time you buy a coffee pot and a cup there is no longer any value to Value Place.  The staff was unable to make any decisions and we were often told to come back or call tomorrow.  They took all of our pots and pans out of the room before we checked out.  We then had to wait hours for someone with a key to look for them. Several things were never returned like an entire set of silverware.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>Value Place has a kitchen in each room but there are no kitchen supplies.  This is not apparent until you check into your room.  They have supplies for sale in the office but by the time you buy a coffee pot and a cup there is no longer any value to Value Place.  The staff was unable to make any decisions and we were often told to come back or call tomorrow.  They took all of our pots and pans out of the room before we checked out.  We then had to wait hours for someone with a key to look for them. Several things were never returned like an entire set of silverware.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1215,1709 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>144</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X24" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_785.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_785.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>galvanb</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The front staff young lady was very friendly but overall for a "Suite " type hotel, it's lacking. Truthfully, it's like being in a Motel 6 with a fridge and stove. Don't get me wrong, for the price and expectation, I love Motel 6 but you expect a good but average room BUT when you reserve a Suite, I think the expectation is higher. I got a decent rate and it's close to my training but I will probably stay somewhere else next time. NO BREAKFAST, NO GOODIES, NOT EVEN BOTTLED WATER IN THE ROOM :(More</t>
   </si>
   <si>
+    <t>Goosenator</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r473491020-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Stayed for work rooms appear dated but clean, bed feels like your sleeping on a piece of plywood very uncomfortable, desk lady was nice. Area is ok just off main highway and short distance from restaurants. More</t>
   </si>
   <si>
+    <t>falcon3mom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r440201264-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>While registering for my stay at the Value Place in McKinney, Tracy O., the guest attendant was the most friendliest and professional attendant that I have ever encountered.  She was very knowledgeable about the property and answered all my questions. Tracy O. made my experience here feel like home.More</t>
   </si>
   <si>
+    <t>gdplum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r368585614-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>For 10 days in April 2016, I occupied room 303. To my delight, the roof was more than adequate for my needs. Quiet, clean, and comfortable. Amenities are minimal, which is the reason the rates are good. If in the area in the future, I will stay there again.More</t>
   </si>
   <si>
+    <t>kprice52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r351226956-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I...The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I go downsatirs and do my laundry and then get back up and my card doesn't work after midnight. Had to call the office after hours, and I was told that it would be more than 10 mins, before she get's down there. First of all, day one I was here after over 12 hours drive was told to wait. The staff and mangment doesn't care what you do as long as they get thire money. I hope this palce will be able to matain thier business for a long time with their attitude. I hope that they can fix their problem and not charge eveyone such a weekly rate which it ten times more than an appartment and a house.More</t>
   </si>
   <si>
+    <t>Brandon A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r344296135-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r330088590-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>560katrinas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r329079638-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>Value Place is the by far the best place I've stayed so far! We've been here for almost 6 months and have never had a problem. The rooms are kept up nicely and the staff are sweet especially Amy!! She's the nicest one here by far. She works to make sure our stay is enjoyable and makes sure we are all taken care of. She goes above and beyond to make it her duty to make sure we don't need anything. She is the sweetest lady and works hard at what she does. Every time we've paid rent theirs never been a problem as long as she's there. She helps us when we need something and is all around AMAZING! We love Amy!!! In My opinion she is the most professional staff member here. If your traveling I would deffinantly stay at Value Place! Thank so much for your graciousness and your hospitality. (:More</t>
   </si>
   <si>
+    <t>Tiffany M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r326331152-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>This place was way better than I expected. It's very clean. Me, my mom and my daughter stayed here for 8 days, while visiting family. We stayed in the 2 bed studio. It offers you your own space.  The homes of family member can get a little too crowded and Im the type that likes my space. For $50 a night, you cant beat that. Absolutely loved it. The house keeper Casey ( I think that was her name) was an absolute doll. Very hospitable. Hot water no matter how early or how late. The only complaint that I really have is that there is no real place to take out your garbage.  Housekeeping cleans the rooms once a week. If you want it more than that, you gotta pay for it. Everybody throws there bags of garbage in the little garbage can in front of the hotel, that quickly over flows. And there's no ironing board or iron in the rooms. You have to get them from the front desk. If you go beyond 30 min, they will charge you. And if the front is closed, you !#%× outta luck, you'll just be walking around with wrinkle clothes. Everything here is very basic. That's why it's so cheap, but very clean. And it's right off of a main highway and you got a super target and a few other stores up the block. I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Tre R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r322467565-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t xml:space="preserve">Most of the staff here that I have encountered is very likeable. Amy and Tori have handled most of my check-ins. They have made and make things a little smoother for me whenever I need a room. All in all I usually look to come here whenever I need a place to go for the night. It is just very convenient for me and is familiar as well. So until I actually start the process of looking for an apartment again, I will continue to come here. </t>
   </si>
   <si>
+    <t>EvylikeChevy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r320354099-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>First, the staff is rude. Need something? Forget it. You get one roll of toilet paper. After that, you're on your own. The web site advertises weekly and monthly rates. That's a lie. It's the same rate, every day. If you rent daily, you get daily cleaning, toilet paper, soap. There are less expensive places in the area. It is, however, clean. Police do often cruise the parking lot. That makes me wonder whether the place is safe because of the police or unsafe, and that's why the police are there.</t>
   </si>
   <si>
+    <t>Cutnshotbiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r319161863-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>I checked in for 1 night and informed desk clerk that I would most likely extend for the week. The next morning I get a phone call from another employee asking me "what should we do with your belongings" in a sarcastic tone. I informed her that I wanted to extend and would be there after I got off work. My co-worker extended his room for the week and as I was extending mine I noticed that they charged me for a week and not extended. So I was charged 1 day and 1 week. They did the same to my co-worker. I asked to be refunded as was told the manager Clint would have to do that. 4 days later and 3 more trips to the front desk speaking with 3 different people, Clint has yet to call me back or refund my money. Not happy and very unprofessional. Still waiting on both Value Place......More</t>
   </si>
   <si>
+    <t>Mariah Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r298086990-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>I relocated recently and stayed for almost two weeks. The price was very reasonable and the hotel was perfect for a transitional stay. I didn't not know there were stoves so I did not bring cookware but with a full sized fridge and microwave I was able to get buy without eating out every day.  The building was very clean and secure and I felt safe. Laundry on premesis was also helpful. The staff was very nice and helpful as well.  I am glad I read previous reviews about the management change or I would not have stayed based on older reviews.  My room would not get as cold as I would like but it wasn't horrible.  There is no pool or anything else for kids to do but it served my needs and I'm glad I stayed there.More</t>
   </si>
   <si>
+    <t>Angela F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r298063009-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>I first arrived to the hotel and was greeted by the assistant manager  (Amy) she was very friendly and answered all my questions that i had and being new to the area helped me find local things around me. The room was well kept and clean (which is always nice) it felt more like a home than hotel room with a fridge and microwave and stove top and counter space. I had trouble getting the A/C to come on but the property attendant (Jaocb) was super helpful and friendly and was more than happy to help me even though it was after hours (greatly appreciated). All together it was a good stay and i will definitely will be back. More</t>
   </si>
   <si>
+    <t>Sandy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r274823474-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>jordanhg2233</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r217302509-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>My stay here was the worst I've had in a long time, staff has yelled at me cussed me out multiple times . Staff does drugs. Bugs everywhere. Zero room service you have to do everything yourself. After taxes it's 338$$ a week you have to wait a month to get the "279.99"...... which is so extravagantly showcased on the sign out front. No ice machines. Cops are called here all the time. Kids are constantly throwing loud partys. If you love being disrespected, and love half star hotels come here!!!</t>
   </si>
   <si>
+    <t>Randall S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r217369272-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -507,6 +558,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Zanne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r196460182-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>dlovely2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r176618996-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>I would reccomend this hotel. The service was great and rooms are very nice and cleanLocation is great!! Laundry facility on site. I feel safe on as well. They have on site security and you can't have access without a key card. Love It!!</t>
   </si>
   <si>
+    <t>Allen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r162476020-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -567,6 +627,9 @@
     <t>Very nice place to stay. staff is really good and responses to problems quickly.  Best value for the services offered i have found. I would recommend this place to anyone. The cleaning staff and on site manager are very responsive to my needs when I ask them. I wish I had found Value Place when I was traveling more they would have made my travels a lot easier.  The small kitchen is really handy.More</t>
   </si>
   <si>
+    <t>Byron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r162473438-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>Stayed here several months, and was glad to have a room to come home to that was clean and safe. The staff is great, and always eager to help you. Having a kitchen makes life allot easier when you're trying to make ends meet. It's a blessing to have a place that charges reasonable rates with cable included and internet for a little more. There's a laundry room as well, so you don't have to leave the property to wash your clothes. It's located on the north side of town, with all kinds of places to go for entertainment and food. If you're staying for a week, or longer, this is the place you want to go!More</t>
   </si>
   <si>
+    <t>Lynnette G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r131028519-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>My family and I have been here since Jan 2012. Due to me having a car wreck and losing my house. The best place to stay. The staff is awesome they take care of you. If something is wrong they fix it. If you need anything they let you have it or use it. For  the prices it good. You have a kitchen and you still can cook. Its like you are away from home but when other people are cooking you can smell it in the halls. I have meet some really nice people that I will contunie to talk to outside of Value Place. The key cards is great and awesome that people cant find you if you dont want to be found. If I ever need a hotel again I know where my family will be going??? Thanks so much Mrs. LG.More</t>
   </si>
   <si>
+    <t>Chirs H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r130867749-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -630,6 +699,9 @@
     <t>First off let me say that I travel extensively with my job and I stay at one location for weeks at a time.  I have just recently discovered Value Place as an option to stay.  Now at first I was thinking that the hotel might have been dirty or of low quality due to the name.  I took a chance anyway because the price was outstanding. It turns out that this is a great place to stay.  The rooms were clean and the staff was amazing.  I was very surprised at how much the staff went out of their way to make me feel comfortable.  I was put off by the fact that they did not have a coffee pot in the room, but once I was told that my stay was more like a smaller lease on an apartment I figured, when I rent an apartment it doesn’t come with a coffee pot, pots and pans so it didn’t bother me.  Another thing that I liked was the fact that they have a security person on site at all times.  All and all I will be back here again, and I would defiantly recommend this location to anyone looking for a great deal and a great stay.More</t>
   </si>
   <si>
+    <t>BJNO12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r129245728-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -648,6 +720,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>helenasribas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r34477766-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -669,6 +744,9 @@
     <t>My family and I were checking in the hotel.We had a card that was going to be deducted 100 dollars for the one week deposit, they deducted more than 1000 dollars from my acount in fault and now my whole acount is scrued up. I cannot do anything in my acount for days. Being that all this happened we would expect some kind of respect from the staff but all we had were silly remarks when we passed down the halls and asked for clean towels.I asked for the properties corporate office and they refused to give me ANY name or number whatsover.My daughter was discriminated by the manager that said she was being rude when she was asking for the corporate number nicely and politely.They are now owing me more than 1000 dollars and made us pay for three days even though we only stayed for 2 nights.I figured that after what we went through in this terrible place they would at least give me my money back!!!Staff in this place are the worst people that i have delt with in my life.Non professional and i have been trying to get ahold of the property manager but no one has called me and my money????? Nothing!!!More</t>
   </si>
   <si>
+    <t>hcamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r33670528-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -694,6 +772,9 @@
   </si>
   <si>
     <t>This was the cleanest hotel, in one of the safest areas around McKinney.  Fits well into anyones budget.  The manager showed me the rooms before I rented, and she made it very clear what did and did not come with the room - so there were no surprises.  Very friendly, helpful and welcoming.More</t>
+  </si>
+  <si>
+    <t>chxfeet</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r31082291-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -1219,43 +1300,47 @@
       <c r="A2" t="n">
         <v>57417</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>182587</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1267,56 +1352,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57417</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182588</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1328,56 +1417,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57417</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>182589</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1395,56 +1488,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57417</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182590</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1460,56 +1557,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57417</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>182591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -1527,50 +1628,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57417</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>21407</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1584,50 +1689,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57417</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1651,50 +1760,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57417</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>182592</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1708,50 +1821,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57417</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>7936</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1765,50 +1882,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57417</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>182593</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1822,41 +1943,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57417</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>182594</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1875,50 +2000,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57417</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>182595</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1932,50 +2061,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57417</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>182596</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1989,50 +2122,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57417</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>56193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2046,50 +2183,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57417</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>43084</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2103,41 +2244,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57417</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>182597</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -2166,50 +2311,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57417</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>44283</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2233,50 +2382,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57417</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>182598</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2298,41 +2451,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57417</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>182599</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2361,50 +2518,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57417</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>182600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2426,56 +2587,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="X21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57417</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>34263</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2497,56 +2662,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="X22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57417</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>182601</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2568,56 +2737,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57417</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>182602</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2639,56 +2812,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="X24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57417</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>182603</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2712,50 +2889,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57417</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>182604</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -2779,50 +2960,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57417</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>182605</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2842,56 +3027,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="X27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57417</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>182606</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -2915,7 +3104,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_785.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_785.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>galvanb</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r562561059-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>1156755</t>
+  </si>
+  <si>
+    <t>562561059</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Worst of Texas</t>
+  </si>
+  <si>
+    <t>The worst hotel I’ve stayed at in many, many years. I just stopped in to get a few hours sleep and a shower before an event nearby tonight. The aircon unit registered 78dB, which is the equivalent of loud singing. Doors in the hallway were constantly slamming against their stops. Someone was deep frying in their room and the stench permeated everything. They may as well have been cooking in my room. Only one bar of motel size soap. No shampoo or conditioner. No tissue dispenser. Even though the sign out front said 24 hour key card access, the main entry was propped open with a traffic cone. I wonder where they stole that from? (That’s a rhetorical question, BTW) For the price they want to stay in this dung-hole they need to step it up a lot. The one thing positive I will say, is it wasn’t filthy. On the other hand, the internet is excruciatingly slow and there is no bedside lamp. So they’ve got that going for them, which is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites McKinney, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>The worst hotel I’ve stayed at in many, many years. I just stopped in to get a few hours sleep and a shower before an event nearby tonight. The aircon unit registered 78dB, which is the equivalent of loud singing. Doors in the hallway were constantly slamming against their stops. Someone was deep frying in their room and the stench permeated everything. They may as well have been cooking in my room. Only one bar of motel size soap. No shampoo or conditioner. No tissue dispenser. Even though the sign out front said 24 hour key card access, the main entry was propped open with a traffic cone. I wonder where they stole that from? (That’s a rhetorical question, BTW) For the price they want to stay in this dung-hole they need to step it up a lot. The one thing positive I will say, is it wasn’t filthy. On the other hand, the internet is excruciatingly slow and there is no bedside lamp. So they’ve got that going for them, which is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r545361819-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>545361819</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>the worst hotel ever. there were crackheads everywhere and the rooms were horrible. had to go to walmart to get blankets just to be able to sleep. the beds were on bricks. just terrible.i would not recommend this to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites McKinney, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>the worst hotel ever. there were crackheads everywhere and the rooms were horrible. had to go to walmart to get blankets just to be able to sleep. the beds were on bricks. just terrible.i would not recommend this to anyone.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r504025196-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
-    <t>56260</t>
-  </si>
-  <si>
-    <t>1156755</t>
-  </si>
-  <si>
     <t>504025196</t>
   </si>
   <si>
@@ -189,9 +246,6 @@
     <t>The front staff young lady was very friendly but overall for a "Suite " type hotel, it's lacking. Truthfully, it's like being in a Motel 6 with a fridge and stove. Don't get me wrong, for the price and expectation, I love Motel 6 but you expect a good but average room BUT when you reserve a Suite, I think the expectation is higher. I got a decent rate and it's close to my training but I will probably stay somewhere else next time. NO BREAKFAST, NO GOODIES, NOT EVEN BOTTLED WATER IN THE ROOM :(More</t>
   </si>
   <si>
-    <t>Goosenator</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r473491020-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -219,9 +273,6 @@
     <t>Stayed for work rooms appear dated but clean, bed feels like your sleeping on a piece of plywood very uncomfortable, desk lady was nice. Area is ok just off main highway and short distance from restaurants. More</t>
   </si>
   <si>
-    <t>falcon3mom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r440201264-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -240,9 +291,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Stephen S, District Manager at WoodSpring Suites McKinney, responded to this reviewResponded December 1, 2016</t>
   </si>
   <si>
@@ -252,7 +300,52 @@
     <t>While registering for my stay at the Value Place in McKinney, Tracy O., the guest attendant was the most friendliest and professional attendant that I have ever encountered.  She was very knowledgeable about the property and answered all my questions. Tracy O. made my experience here feel like home.More</t>
   </si>
   <si>
-    <t>gdplum</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r428789422-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>428789422</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>highly recommend</t>
+  </si>
+  <si>
+    <t>awesome staff this is my 3rd week here... a little pricy at $406 a week but i would recommend it to anyone. quiet, bug free, work with you on payments if your stuck at work and running behind , parking is always available unlike some places it takes forever to find availabilityMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, District Manager at WoodSpring Suites McKinney, responded to this reviewResponded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2016</t>
+  </si>
+  <si>
+    <t>awesome staff this is my 3rd week here... a little pricy at $406 a week but i would recommend it to anyone. quiet, bug free, work with you on payments if your stuck at work and running behind , parking is always available unlike some places it takes forever to find availabilityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r425328365-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>425328365</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay long term.</t>
+  </si>
+  <si>
+    <t>Value Place in McKinney is in a great location which is just a few miles from everything you need and without the traffic.  The staff here are friendly and helpful.  In my experience traveling; this is at the top of my list of places to stay for the location and price.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Value Place in McKinney is in a great location which is just a few miles from everything you need and without the traffic.  The staff here are friendly and helpful.  In my experience traveling; this is at the top of my list of places to stay for the location and price.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r368585614-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -282,9 +375,6 @@
     <t>For 10 days in April 2016, I occupied room 303. To my delight, the roof was more than adequate for my needs. Quiet, clean, and comfortable. Amenities are minimal, which is the reason the rates are good. If in the area in the future, I will stay there again.More</t>
   </si>
   <si>
-    <t>kprice52</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r351226956-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -306,9 +396,6 @@
     <t>The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I...The price is cheaper, but overall depending how long you are going to stay is more. They don't do monthly rates it's only weekley. You can get an appartment and even a houe to rend for cheaper. The extra coast is a lot, you would have to pay for extra cleaning service, wi-fi. The full out kitchen doesn't even have an oven so therefore it's not a full out kitchen. It's day by day, I booked my stay from 02/15/2016-2/26-2016. When I first got here after hours, I had to wait a while in order to get chekced in. They only charged me a week, and after that it's day by day. Was told that I would not get my refund back if I had paid for the full two weeks. The week was up and online said that it's once you leave then you pay. LIE, no it's day by day, so everyday you have to go to the office and pay your daily rate each and every time which all includes sales taxes. One dya I ran out of toilet papaer and was told to always go to the office during business hours and  get some and not after hours. I was not even in this building at that time when I was doing other things. I have been locekd out of my room more than three times becuase no one can tell me the correct answer. I go downsatirs and do my laundry and then get back up and my card doesn't work after midnight. Had to call the office after hours, and I was told that it would be more than 10 mins, before she get's down there. First of all, day one I was here after over 12 hours drive was told to wait. The staff and mangment doesn't care what you do as long as they get thire money. I hope this palce will be able to matain thier business for a long time with their attitude. I hope that they can fix their problem and not charge eveyone such a weekly rate which it ten times more than an appartment and a house.More</t>
   </si>
   <si>
-    <t>Brandon A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r344296135-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -327,7 +414,37 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>John R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r333576049-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>333576049</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Best by far!!!!</t>
+  </si>
+  <si>
+    <t>I must admit this was one of the best hotels stays, I have had by far, for starters  the manager Diana Ortiz was top notch the assistant  manager  Amy Mcpherson was great, they go above and beyond their duties I give their customer service rating an A++. The hotel was clean and the atmosphere from the staff was very welcoming this place get 5 stars from me keep up the good work value place hope to visit again soon!!!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r331746884-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>331746884</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Excellent for the price.</t>
+  </si>
+  <si>
+    <t>My family and I was passing thru on the way home and we wanted a cheap place to stay the night. I found this hotel and the pictures online looked decent so I reserved a room. Checking in was a little different. We arrived Saturday around 8:00 pm. The office was closed. There was a phone with a sign that said after hours call ***. So I called and a lady said she would be down in 10 minutes to get me checked in.  The room was plain but clean and the beds were comfortable.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r330088590-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -348,9 +465,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>560katrinas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r329079638-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -366,15 +480,9 @@
     <t>Value Place is the by far the best place I've stayed so far! We've been here for almost 6 months and have never had a problem. The rooms are kept up nicely and the staff are sweet especially Amy!! She's the nicest one here by far. She works to make sure our stay is enjoyable and makes sure we are all taken care of. She goes above and beyond to make it her duty to make sure we don't need anything. She is the sweetest lady and works hard at what she does. Every time we've paid rent theirs never been a problem as long as she's there. She helps us when we need something and is all around AMAZING! We love Amy!!! In My opinion she is the most professional staff member here. If your traveling I would deffinantly stay at Value Place! Thank so much for your graciousness and your hospitality. (:MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Value Place is the by far the best place I've stayed so far! We've been here for almost 6 months and have never had a problem. The rooms are kept up nicely and the staff are sweet especially Amy!! She's the nicest one here by far. She works to make sure our stay is enjoyable and makes sure we are all taken care of. She goes above and beyond to make it her duty to make sure we don't need anything. She is the sweetest lady and works hard at what she does. Every time we've paid rent theirs never been a problem as long as she's there. She helps us when we need something and is all around AMAZING! We love Amy!!! In My opinion she is the most professional staff member here. If your traveling I would deffinantly stay at Value Place! Thank so much for your graciousness and your hospitality. (:More</t>
   </si>
   <si>
-    <t>Tiffany M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r326331152-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -396,7 +504,37 @@
     <t>This place was way better than I expected. It's very clean. Me, my mom and my daughter stayed here for 8 days, while visiting family. We stayed in the 2 bed studio. It offers you your own space.  The homes of family member can get a little too crowded and Im the type that likes my space. For $50 a night, you cant beat that. Absolutely loved it. The house keeper Casey ( I think that was her name) was an absolute doll. Very hospitable. Hot water no matter how early or how late. The only complaint that I really have is that there is no real place to take out your garbage.  Housekeeping cleans the rooms once a week. If you want it more than that, you gotta pay for it. Everybody throws there bags of garbage in the little garbage can in front of the hotel, that quickly over flows. And there's no ironing board or iron in the rooms. You have to get them from the front desk. If you go beyond 30 min, they will charge you. And if the front is closed, you !#%× outta luck, you'll just be walking around with wrinkle clothes. Everything here is very basic. That's why it's so cheap, but very clean. And it's right off of a main highway and you got a super target and a few other stores up the block. I will definitely stay here again.More</t>
   </si>
   <si>
-    <t>Tre R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r323066774-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>323066774</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Catching up with old friends</t>
+  </si>
+  <si>
+    <t>I stayed at the Value Place in McKinney when I went to a 60th birthday party for a friend.  My room, as well as the entire property, was exceptionally clean. The staff was knowledgeable and friendly. You could tell that the hotel, both inside and out,  was well taken care of.  I was in and out of the hotel at all hours and always felt safe.  I highly recommend the Value Place in McKinney. I will definitely stay in this hotel again.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r322993354-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>322993354</t>
+  </si>
+  <si>
+    <t>Thanks for the stay</t>
+  </si>
+  <si>
+    <t>Clint and April and Maria are the best. Had a great stay.The hotel was really clean and the staff was really good to meet. My check in was really smooth with no complications. I really got what I paid for and more.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r322467565-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -414,9 +552,6 @@
     <t xml:space="preserve">Most of the staff here that I have encountered is very likeable. Amy and Tori have handled most of my check-ins. They have made and make things a little smoother for me whenever I need a room. All in all I usually look to come here whenever I need a place to go for the night. It is just very convenient for me and is familiar as well. So until I actually start the process of looking for an apartment again, I will continue to come here. </t>
   </si>
   <si>
-    <t>EvylikeChevy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r320354099-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -432,9 +567,6 @@
     <t>First, the staff is rude. Need something? Forget it. You get one roll of toilet paper. After that, you're on your own. The web site advertises weekly and monthly rates. That's a lie. It's the same rate, every day. If you rent daily, you get daily cleaning, toilet paper, soap. There are less expensive places in the area. It is, however, clean. Police do often cruise the parking lot. That makes me wonder whether the place is safe because of the police or unsafe, and that's why the police are there.</t>
   </si>
   <si>
-    <t>Cutnshotbiker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r319161863-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -453,7 +585,37 @@
     <t>I checked in for 1 night and informed desk clerk that I would most likely extend for the week. The next morning I get a phone call from another employee asking me "what should we do with your belongings" in a sarcastic tone. I informed her that I wanted to extend and would be there after I got off work. My co-worker extended his room for the week and as I was extending mine I noticed that they charged me for a week and not extended. So I was charged 1 day and 1 week. They did the same to my co-worker. I asked to be refunded as was told the manager Clint would have to do that. 4 days later and 3 more trips to the front desk speaking with 3 different people, Clint has yet to call me back or refund my money. Not happy and very unprofessional. Still waiting on both Value Place......More</t>
   </si>
   <si>
-    <t>Mariah Z</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r316857548-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>316857548</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I had a quick and easy check in, thanks to Amy. I called for bath tissue and Casey brought it to my room within two minutes. Great customer service! The room as well as the entire hotel was very clean and neat. When I had a noise complaint in the middle of the night, nothing was done about it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r312700284-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>312700284</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Like Family</t>
+  </si>
+  <si>
+    <t>We stayed here for months.  My wife had brain surgery in Dallas and she was able to recover in our room.  We loved the staff!  They fell in love with our toddler.  We actually shed tears when we left!  A big plus was the cable channels we had.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r298086990-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -477,9 +639,6 @@
     <t>I relocated recently and stayed for almost two weeks. The price was very reasonable and the hotel was perfect for a transitional stay. I didn't not know there were stoves so I did not bring cookware but with a full sized fridge and microwave I was able to get buy without eating out every day.  The building was very clean and secure and I felt safe. Laundry on premesis was also helpful. The staff was very nice and helpful as well.  I am glad I read previous reviews about the management change or I would not have stayed based on older reviews.  My room would not get as cold as I would like but it wasn't horrible.  There is no pool or anything else for kids to do but it served my needs and I'm glad I stayed there.More</t>
   </si>
   <si>
-    <t>Angela F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r298063009-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -498,9 +657,6 @@
     <t>I first arrived to the hotel and was greeted by the assistant manager  (Amy) she was very friendly and answered all my questions that i had and being new to the area helped me find local things around me. The room was well kept and clean (which is always nice) it felt more like a home than hotel room with a fridge and microwave and stove top and counter space. I had trouble getting the A/C to come on but the property attendant (Jaocb) was super helpful and friendly and was more than happy to help me even though it was after hours (greatly appreciated). All together it was a good stay and i will definitely will be back. More</t>
   </si>
   <si>
-    <t>Sandy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r274823474-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -519,7 +675,46 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>jordanhg2233</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r246414580-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>246414580</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Changes in MGMT / Staff have been AMAZING</t>
+  </si>
+  <si>
+    <t>We have been staying here at the McKinney location since early July.  Our stay was to be a brief one but do to some unplanned surgeries, our plans were changed.  At the beginning of our stay, there were MANY problems and issues - both financial and service oriented.  There was something fishy going on with the management which was taken care of a month into our visit.  After a few hospitalizations, I came out of the hospital to find a new manager, Clint, who changed the game IMMEDIATELY.  Managers in hospitality set the tone from the top on down.  He cleaned up the riff-raff and we noticed the change right away.  He regularly walks the property and inspects the laundry and facilities.    This is a no frills establishment but the staff that has remained and the new people he has brought in have been very effective and I think that they should be commended.  Every place will have or has had issues at some time or another but it is how you address these issues that shows the true character of a place.Thanks to Clint, Gilbert, Maria, and every other member of the Value Place McKinney team for striving to make this place one that you can, and should, all be proud of.Thankfully,Brian JonesMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites McKinney, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>We have been staying here at the McKinney location since early July.  Our stay was to be a brief one but do to some unplanned surgeries, our plans were changed.  At the beginning of our stay, there were MANY problems and issues - both financial and service oriented.  There was something fishy going on with the management which was taken care of a month into our visit.  After a few hospitalizations, I came out of the hospital to find a new manager, Clint, who changed the game IMMEDIATELY.  Managers in hospitality set the tone from the top on down.  He cleaned up the riff-raff and we noticed the change right away.  He regularly walks the property and inspects the laundry and facilities.    This is a no frills establishment but the staff that has remained and the new people he has brought in have been very effective and I think that they should be commended.  Every place will have or has had issues at some time or another but it is how you address these issues that shows the true character of a place.Thanks to Clint, Gilbert, Maria, and every other member of the Value Place McKinney team for striving to make this place one that you can, and should, all be proud of.Thankfully,Brian JonesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r223438160-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>223438160</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Worst traveling manager ever</t>
+  </si>
+  <si>
+    <t>The traveling manager sits there and demands money after she is told that she will get the money friday, she bangs on the doors and treats peope like crap. Over all there is one staff person that is great and Natalie helps out the best she can for working 24/7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r217302509-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -537,9 +732,6 @@
     <t>My stay here was the worst I've had in a long time, staff has yelled at me cussed me out multiple times . Staff does drugs. Bugs everywhere. Zero room service you have to do everything yourself. After taxes it's 338$$ a week you have to wait a month to get the "279.99"...... which is so extravagantly showcased on the sign out front. No ice machines. Cops are called here all the time. Kids are constantly throwing loud partys. If you love being disrespected, and love half star hotels come here!!!</t>
   </si>
   <si>
-    <t>Randall S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r217369272-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -558,9 +750,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Zanne S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r196460182-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -579,7 +768,34 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>dlovely2006</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r194054293-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>194054293</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Safe, Clean rooms, friendly people and great service. Amy was a spectacular worker who helped in way she could! We had an awesome experience. Couldn't ask for a better hotel to stay with my family at!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r194054048-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>194054048</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The staff was up to a great standard. Could not ask for a more better stay. Very clean and up to my standards. Chad and Amy have great customer service skills. Great environment.The Hotel is great for everyone.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r176618996-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -597,9 +813,6 @@
     <t>I would reccomend this hotel. The service was great and rooms are very nice and cleanLocation is great!! Laundry facility on site. I feel safe on as well. They have on site security and you can't have access without a key card. Love It!!</t>
   </si>
   <si>
-    <t>Allen W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r162476020-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -627,9 +840,6 @@
     <t>Very nice place to stay. staff is really good and responses to problems quickly.  Best value for the services offered i have found. I would recommend this place to anyone. The cleaning staff and on site manager are very responsive to my needs when I ask them. I wish I had found Value Place when I was traveling more they would have made my travels a lot easier.  The small kitchen is really handy.More</t>
   </si>
   <si>
-    <t>Byron P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r162473438-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -645,7 +855,52 @@
     <t>Stayed here several months, and was glad to have a room to come home to that was clean and safe. The staff is great, and always eager to help you. Having a kitchen makes life allot easier when you're trying to make ends meet. It's a blessing to have a place that charges reasonable rates with cable included and internet for a little more. There's a laundry room as well, so you don't have to leave the property to wash your clothes. It's located on the north side of town, with all kinds of places to go for entertainment and food. If you're staying for a week, or longer, this is the place you want to go!More</t>
   </si>
   <si>
-    <t>Lynnette G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r145320437-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>145320437</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Best staff around!!!</t>
+  </si>
+  <si>
+    <t>From the moment I checked in the staff made me feel at home. The wheelchair accessible room helped make life a lot easier to manage. The place is very clean, well maintained and always secure. But it all comes back to a complete staff that truly cares. This place is the BEST their is.tMoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites McKinney, responded to this reviewResponded November 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2012</t>
+  </si>
+  <si>
+    <t>From the moment I checked in the staff made me feel at home. The wheelchair accessible room helped make life a lot easier to manage. The place is very clean, well maintained and always secure. But it all comes back to a complete staff that truly cares. This place is the BEST their is.tMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r132154989-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>132154989</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Not a real value, bugs, dirty and rude staff</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks against my better judgement but they will not refund you money once you pay. Don't know if you can see the photo of the roach in the lobby but that sets the tone for this location. Room was dirty when we got here. Stains on pillow cases, sticky table and stained chairs plus a nasty odor that was unpleasant. Asked for another room and security person, I wont name her, said she had to see the room. She gave me every excuse as to why the room was dirty and smelled; we have a new cleaning person and they arent so good. The smell in here is normal it's just that the AC is off. She was rude, apologied for nothing and would not change the room. I asked for money back and that's when she said no refunds. Odor never went away and we bought plug-ins to help with it. They shut off my web access despite renewing for a week so I couldn't work. Don't continue to give people to these bad people.MoreShow less</t>
+  </si>
+  <si>
+    <t>VPRay175, Area Manager at WoodSpring Suites McKinney, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks against my better judgement but they will not refund you money once you pay. Don't know if you can see the photo of the roach in the lobby but that sets the tone for this location. Room was dirty when we got here. Stains on pillow cases, sticky table and stained chairs plus a nasty odor that was unpleasant. Asked for another room and security person, I wont name her, said she had to see the room. She gave me every excuse as to why the room was dirty and smelled; we have a new cleaning person and they arent so good. The smell in here is normal it's just that the AC is off. She was rude, apologied for nothing and would not change the room. I asked for money back and that's when she said no refunds. Odor never went away and we bought plug-ins to help with it. They shut off my web access despite renewing for a week so I couldn't work. Don't continue to give people to these bad people.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r131028519-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -675,9 +930,6 @@
     <t>My family and I have been here since Jan 2012. Due to me having a car wreck and losing my house. The best place to stay. The staff is awesome they take care of you. If something is wrong they fix it. If you need anything they let you have it or use it. For  the prices it good. You have a kitchen and you still can cook. Its like you are away from home but when other people are cooking you can smell it in the halls. I have meet some really nice people that I will contunie to talk to outside of Value Place. The key cards is great and awesome that people cant find you if you dont want to be found. If I ever need a hotel again I know where my family will be going??? Thanks so much Mrs. LG.More</t>
   </si>
   <si>
-    <t>Chirs H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r130867749-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -699,9 +951,6 @@
     <t>First off let me say that I travel extensively with my job and I stay at one location for weeks at a time.  I have just recently discovered Value Place as an option to stay.  Now at first I was thinking that the hotel might have been dirty or of low quality due to the name.  I took a chance anyway because the price was outstanding. It turns out that this is a great place to stay.  The rooms were clean and the staff was amazing.  I was very surprised at how much the staff went out of their way to make me feel comfortable.  I was put off by the fact that they did not have a coffee pot in the room, but once I was told that my stay was more like a smaller lease on an apartment I figured, when I rent an apartment it doesn’t come with a coffee pot, pots and pans so it didn’t bother me.  Another thing that I liked was the fact that they have a security person on site at all times.  All and all I will be back here again, and I would defiantly recommend this location to anyone looking for a great deal and a great stay.More</t>
   </si>
   <si>
-    <t>BJNO12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r129245728-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -720,7 +969,55 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>helenasribas</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r129172956-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>129172956</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Great place to live if you're an ex-con.</t>
+  </si>
+  <si>
+    <t>I just had three members of the staff storm my front door because my window must be locked, or else I will get fined $25 a day.  According to them, It's a safety issue. If my window is open more than five inches and isn't locked, I'm in some sort of danger.  Never mind that my air conditioner hasn't worked for six months. The staff here isn't used to people who know what it is to rent an apartment or own a home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Value Place Property Management at WoodSpring Suites McKinney, responded to this reviewResponded May 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2012</t>
+  </si>
+  <si>
+    <t>I just had three members of the staff storm my front door because my window must be locked, or else I will get fined $25 a day.  According to them, It's a safety issue. If my window is open more than five inches and isn't locked, I'm in some sort of danger.  Never mind that my air conditioner hasn't worked for six months. The staff here isn't used to people who know what it is to rent an apartment or own a home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r40443801-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>40443801</t>
+  </si>
+  <si>
+    <t>09/09/2009</t>
+  </si>
+  <si>
+    <t>Best Hotel in McKinney</t>
+  </si>
+  <si>
+    <t>I travel alot with my business. They staff very attentive. Hotel very clean. I was guest for almost a year and i have no complaints. I would recomend this hotel to any family, business partners and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites McKinney, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>I travel alot with my business. They staff very attentive. Hotel very clean. I was guest for almost a year and i have no complaints. I would recomend this hotel to any family, business partners and friends.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r34477766-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -744,9 +1041,6 @@
     <t>My family and I were checking in the hotel.We had a card that was going to be deducted 100 dollars for the one week deposit, they deducted more than 1000 dollars from my acount in fault and now my whole acount is scrued up. I cannot do anything in my acount for days. Being that all this happened we would expect some kind of respect from the staff but all we had were silly remarks when we passed down the halls and asked for clean towels.I asked for the properties corporate office and they refused to give me ANY name or number whatsover.My daughter was discriminated by the manager that said she was being rude when she was asking for the corporate number nicely and politely.They are now owing me more than 1000 dollars and made us pay for three days even though we only stayed for 2 nights.I figured that after what we went through in this terrible place they would at least give me my money back!!!Staff in this place are the worst people that i have delt with in my life.Non professional and i have been trying to get ahold of the property manager but no one has called me and my money????? Nothing!!!More</t>
   </si>
   <si>
-    <t>hcamp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r33670528-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
   </si>
   <si>
@@ -765,16 +1059,7 @@
     <t>June 2009</t>
   </si>
   <si>
-    <t>Heather L, Manager at WoodSpring Suites McKinney, responded to this reviewResponded July 23, 2012</t>
-  </si>
-  <si>
-    <t>Responded July 23, 2012</t>
-  </si>
-  <si>
     <t>This was the cleanest hotel, in one of the safest areas around McKinney.  Fits well into anyones budget.  The manager showed me the rooms before I rented, and she made it very clear what did and did not come with the room - so there were no surprises.  Very friendly, helpful and welcoming.More</t>
-  </si>
-  <si>
-    <t>chxfeet</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d1156755-r31082291-WoodSpring_Suites_McKinney-McKinney_Texas.html</t>
@@ -1300,47 +1585,43 @@
       <c r="A2" t="n">
         <v>57417</v>
       </c>
-      <c r="B2" t="n">
-        <v>182587</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1352,330 +1633,310 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57417</v>
       </c>
-      <c r="B3" t="n">
-        <v>182588</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57417</v>
       </c>
-      <c r="B4" t="n">
-        <v>182589</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57417</v>
       </c>
-      <c r="B5" t="n">
-        <v>182590</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57417</v>
       </c>
-      <c r="B6" t="n">
-        <v>182591</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57417</v>
       </c>
-      <c r="B7" t="n">
-        <v>21407</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1686,168 +1947,168 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57417</v>
       </c>
-      <c r="B8" t="n">
-        <v>6779</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>105</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>106</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>107</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>108</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
         <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57417</v>
       </c>
-      <c r="B9" t="n">
-        <v>182592</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>112</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>109</v>
-      </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57417</v>
       </c>
-      <c r="B10" t="n">
-        <v>7936</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>119</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>120</v>
@@ -1862,20 +2123,24 @@
         <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
         <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1889,47 +2154,43 @@
       <c r="A11" t="n">
         <v>57417</v>
       </c>
-      <c r="B11" t="n">
-        <v>182593</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>127</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>124</v>
-      </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1943,51 +2204,51 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57417</v>
       </c>
-      <c r="B12" t="n">
-        <v>182594</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>134</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>136</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>137</v>
       </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -2000,176 +2261,184 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57417</v>
       </c>
-      <c r="B13" t="n">
-        <v>182595</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
         <v>139</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>140</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>141</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" t="s">
-        <v>143</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57417</v>
       </c>
-      <c r="B14" t="n">
-        <v>182596</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
         <v>146</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>147</v>
-      </c>
-      <c r="J14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" t="s">
-        <v>149</v>
-      </c>
-      <c r="L14" t="s">
-        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57417</v>
       </c>
-      <c r="B15" t="n">
-        <v>56193</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>148</v>
       </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>151</v>
-      </c>
       <c r="O15" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2183,54 +2452,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57417</v>
       </c>
-      <c r="B16" t="n">
-        <v>43084</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2244,66 +2509,60 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57417</v>
       </c>
-      <c r="B17" t="n">
-        <v>182597</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
         <v>168</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" t="s">
-        <v>171</v>
-      </c>
-      <c r="L17" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2311,424 +2570,338 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57417</v>
       </c>
-      <c r="B18" t="n">
-        <v>44283</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57417</v>
       </c>
-      <c r="B19" t="n">
-        <v>182598</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57417</v>
       </c>
-      <c r="B20" t="n">
-        <v>182599</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57417</v>
       </c>
-      <c r="B21" t="n">
-        <v>182600</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>200</v>
-      </c>
-      <c r="X21" t="s">
-        <v>201</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57417</v>
       </c>
-      <c r="B22" t="n">
-        <v>34263</v>
-      </c>
-      <c r="C22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>200</v>
-      </c>
-      <c r="X22" t="s">
-        <v>201</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57417</v>
       </c>
-      <c r="B23" t="n">
-        <v>182601</v>
-      </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2736,357 +2909,293 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>216</v>
-      </c>
-      <c r="X23" t="s">
-        <v>217</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57417</v>
       </c>
-      <c r="B24" t="n">
-        <v>182602</v>
-      </c>
-      <c r="C24" t="s">
-        <v>219</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>216</v>
-      </c>
-      <c r="X24" t="s">
-        <v>217</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57417</v>
       </c>
-      <c r="B25" t="n">
-        <v>182603</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57417</v>
       </c>
-      <c r="B26" t="n">
-        <v>182604</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57417</v>
       </c>
-      <c r="B27" t="n">
-        <v>182605</v>
-      </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57417</v>
       </c>
-      <c r="B28" t="n">
-        <v>182606</v>
-      </c>
-      <c r="C28" t="s">
-        <v>252</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
-        <v>258</v>
-      </c>
-      <c r="O28" t="s">
-        <v>53</v>
-      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>3</v>
@@ -3104,7 +3213,1223 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K32" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>270</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>271</v>
+      </c>
+      <c r="X35" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>270</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>271</v>
+      </c>
+      <c r="X36" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>284</v>
+      </c>
+      <c r="X37" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" t="s">
+        <v>291</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>292</v>
+      </c>
+      <c r="X38" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>300</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>301</v>
+      </c>
+      <c r="X39" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>309</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>301</v>
+      </c>
+      <c r="X40" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>312</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>316</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>318</v>
+      </c>
+      <c r="J42" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" t="s">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s">
+        <v>321</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>322</v>
+      </c>
+      <c r="X42" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" t="s">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s">
+        <v>328</v>
+      </c>
+      <c r="L43" t="s">
+        <v>329</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>331</v>
+      </c>
+      <c r="X43" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>339</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>331</v>
+      </c>
+      <c r="X45" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57417</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>353</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
